--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail5 Features.xlsx
@@ -3533,7 +3533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3544,29 +3544,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3587,115 +3585,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3712,72 +3700,66 @@
         <v>3.4487534369128e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.5054763316302746</v>
+        <v>2.072109477693587e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.759226442955412</v>
+        <v>2.530091213190828e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.072109477693587e-06</v>
+        <v>0.05851575321497177</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.530091213190828e-06</v>
+        <v>0.2875731812283507</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.05851575321497177</v>
+        <v>0.0859727442798187</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2875731812283507</v>
+        <v>1.918258225355888</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.0859727442798187</v>
+        <v>2.206318307824886</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.925725525965015</v>
+        <v>5.612206005920111</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.206318307824886</v>
+        <v>6.234678775615789e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.612206005920111</v>
+        <v>2590262596.261349</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.234678775615789e-17</v>
+        <v>4.651956939416606e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>2590262596.261349</v>
+        <v>418.3132983791838</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.651956939416606e-08</v>
+        <v>0.000122285484099854</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>418.3132983791838</v>
+        <v>10.35127396453629</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000122285484099854</v>
+        <v>1.088441966309691</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.35127396453629</v>
+        <v>0.01310275176751414</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.088441966309691</v>
+        <v>3.530176405330555</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01310275176751414</v>
+        <v>0.961533389506176</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.530176405330555</v>
+        <v>1.309838535709194</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.961533389506176</v>
+        <v>134</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.309838535709194</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.589570918847041</v>
       </c>
     </row>
@@ -3792,72 +3774,66 @@
         <v>3.066670939428491e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.2487772944952004</v>
+        <v>1.608584448188255e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.1988006998005858</v>
+        <v>2.546169574257584e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.608584448188255e-06</v>
+        <v>0.04034211722690113</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.546169574257584e-06</v>
+        <v>0.2625331217670284</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.04034211722690113</v>
+        <v>0.07043721482005288</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2625331217670284</v>
+        <v>1.929655466612181</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07043721482005288</v>
+        <v>2.606189399989521</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.943382963346144</v>
+        <v>4.73859102303239</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.606189399989521</v>
+        <v>5.600357374867811e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.73859102303239</v>
+        <v>2858092799.804038</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.600357374867811e-17</v>
+        <v>4.228229645354084e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>2858092799.804038</v>
+        <v>457.4760821893351</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.228229645354084e-08</v>
+        <v>0.0001127410119865217</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>457.4760821893351</v>
+        <v>9.11107464031671</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001127410119865217</v>
+        <v>1.159237424638447</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.11107464031671</v>
+        <v>0.009358820934076766</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.159237424638447</v>
+        <v>3.706807410594649</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009358820934076766</v>
+        <v>0.9622018002516916</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.706807410594649</v>
+        <v>1.11069430949162</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9622018002516916</v>
+        <v>129</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.11069430949162</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>129</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.553110327352416</v>
       </c>
     </row>
@@ -3872,72 +3848,66 @@
         <v>2.886558376937542e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.6219724026883627</v>
+        <v>1.245055528810752e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.8343965340934707</v>
+        <v>2.555340588339271e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.245055528810752e-06</v>
+        <v>0.02160966090992723</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.555340588339271e-06</v>
+        <v>0.229305054999287</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.02160966090992723</v>
+        <v>0.05296486710664649</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.229305054999287</v>
+        <v>1.9350808340776</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05296486710664649</v>
+        <v>2.558012219876421</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.951803110984207</v>
+        <v>5.05897195897208</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.558012219876421</v>
+        <v>3.658313184635777e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.05897195897208</v>
+        <v>4375868697.620382</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.658313184635777e-17</v>
+        <v>2.764180295563755e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>4375868697.620382</v>
+        <v>700.502107799958</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.764180295563755e-08</v>
+        <v>0.0001200698646912161</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>700.502107799958</v>
+        <v>8.063596135006684</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001200698646912161</v>
+        <v>1.517459498937907</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.063596135006684</v>
+        <v>0.007807132628212085</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.517459498937907</v>
+        <v>3.86547425966212</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.007807132628212085</v>
+        <v>0.9603082950709038</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.86547425966212</v>
+        <v>1.080734642740815</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9603082950709038</v>
+        <v>129</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.080734642740815</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>129</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.648415801062449</v>
       </c>
     </row>
@@ -3952,72 +3922,66 @@
         <v>2.830900994278761e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.7147290937206325</v>
+        <v>9.504178481216701e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.9043341367445921</v>
+        <v>2.558987023857277e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.504178481216701e-07</v>
+        <v>0.004465283593404198</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.558987023857277e-06</v>
+        <v>0.1923252499086218</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.004465283593404198</v>
+        <v>0.03695193820199119</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1923252499086218</v>
+        <v>1.935148600700377</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03695193820199119</v>
+        <v>2.8460041099173</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.954282299712714</v>
+        <v>5.51937010462577</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.8460041099173</v>
+        <v>2.843626960257719e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.51937010462577</v>
+        <v>5514008689.175091</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.843626960257719e-17</v>
+        <v>2.189810669852684e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>5514008689.175091</v>
+        <v>864.584639391183</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.189810669852684e-08</v>
+        <v>0.0001336629882881482</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>864.584639391183</v>
+        <v>8.275061636994073</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001336629882881482</v>
+        <v>1.614812057603203</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.275061636994073</v>
+        <v>0.009152793011485146</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.614812057603203</v>
+        <v>3.889628313649202</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009152793011485146</v>
+        <v>0.9600466366313881</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.889628313649202</v>
+        <v>1.110433325764772</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9600466366313881</v>
+        <v>129</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.110433325764772</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>129</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.828409961503981</v>
       </c>
     </row>
@@ -4032,72 +3996,66 @@
         <v>2.837815322598172e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.7119820187667335</v>
+        <v>8.780921701897107e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.909610361808324</v>
+        <v>2.558153122762659e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.780921701897107e-07</v>
+        <v>-0.009689716091772637</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.558153122762659e-06</v>
+        <v>0.1578896043169608</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.009689716091772637</v>
+        <v>0.02498666619869553</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1578896043169608</v>
+        <v>1.933217852283589</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02498666619869553</v>
+        <v>2.535264029404626</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.951118964271117</v>
+        <v>6.239695865963497</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.535264029404626</v>
+        <v>3.103047905568566e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.239695865963497</v>
+        <v>4893658127.081042</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.103047905568566e-17</v>
+        <v>2.463099582538199e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>4893658127.081042</v>
+        <v>743.1144948758779</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.463099582538199e-08</v>
+        <v>0.0001188776117140822</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>743.1144948758779</v>
+        <v>8.741773504132158</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001188776117140822</v>
+        <v>1.351683845227933</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.741773504132158</v>
+        <v>0.009084461133752605</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.351683845227933</v>
+        <v>3.944017457959868</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.009084461133752605</v>
+        <v>0.9592783103744968</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.944017457959868</v>
+        <v>1.101145564447713</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9592783103744968</v>
+        <v>129</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.101145564447713</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>129</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>1.968160735086647</v>
       </c>
     </row>
@@ -4112,72 +4070,66 @@
         <v>2.864616323022744e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.7169003315811981</v>
+        <v>8.790799943198475e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.9203129380914916</v>
+        <v>2.55373361133791e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.790799943198475e-07</v>
+        <v>-0.02075198779219665</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.55373361133791e-06</v>
+        <v>0.129263048948345</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02075198779219665</v>
+        <v>0.01711639862968032</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.129263048948345</v>
+        <v>1.932304644479192</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01711639862968032</v>
+        <v>2.636317411338116</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.946628230932862</v>
+        <v>5.566544141361295</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.636317411338116</v>
+        <v>3.898917175934155e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.566544141361295</v>
+        <v>3884286334.159626</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.898917175934155e-17</v>
+        <v>3.100352144536186e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>3884286334.159626</v>
+        <v>588.256159670285</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.100352144536186e-08</v>
+        <v>0.0001030593355864106</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>588.256159670285</v>
+        <v>9.010602431534817</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001030593355864106</v>
+        <v>1.093464898111781</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.010602431534817</v>
+        <v>0.008367485999451793</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.093464898111781</v>
+        <v>3.855250298066794</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.008367485999451793</v>
+        <v>0.9598232892509538</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.855250298066794</v>
+        <v>1.059808077114484</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9598232892509538</v>
+        <v>125</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.059808077114484</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.900503794128846</v>
       </c>
     </row>
@@ -4554,7 +4506,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.362450083181335</v>
+        <v>1.374679096588422</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.940200923933481</v>
@@ -4643,7 +4595,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.366207538885546</v>
+        <v>1.376317671681237</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.874581976443656</v>
@@ -4732,7 +4684,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.356394532417103</v>
+        <v>1.360383229867403</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.859630024139848</v>
@@ -4821,7 +4773,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.343005047114084</v>
+        <v>1.351618202677201</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.745063647909336</v>
@@ -4910,7 +4862,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.357629029697535</v>
+        <v>1.369778529217972</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.710210816264312</v>
@@ -4999,7 +4951,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.359890060080434</v>
+        <v>1.366860493920058</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.68864052174891</v>
@@ -5088,7 +5040,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.387298869534654</v>
+        <v>1.394425198359271</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.653095369048311</v>
@@ -5177,7 +5129,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.561107279833594</v>
+        <v>1.554431110584183</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.116504838597844</v>
@@ -5266,7 +5218,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.597863381717299</v>
+        <v>1.568773603902694</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.04706005686324</v>
@@ -5355,7 +5307,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.664814587158914</v>
+        <v>1.634262558599849</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.309509410047783</v>
@@ -5444,7 +5396,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.673418914566399</v>
+        <v>1.652360036088759</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.3847039960681</v>
@@ -5533,7 +5485,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.665504265312631</v>
+        <v>1.647511330915654</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.29034340730673</v>
@@ -5622,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.731022488254158</v>
+        <v>1.695908734831667</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.651099173969529</v>
@@ -5711,7 +5663,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.738746955456397</v>
+        <v>1.700570525784369</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.617734266570111</v>
@@ -5800,7 +5752,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.743369817589703</v>
+        <v>1.702778723669315</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.582745535090847</v>
@@ -5889,7 +5841,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.750024706864925</v>
+        <v>1.704561592516747</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.579726680668489</v>
@@ -5978,7 +5930,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.752278721652293</v>
+        <v>1.710109705092941</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.261185853217889</v>
@@ -6067,7 +6019,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.753528952629511</v>
+        <v>1.714319600876486</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.510029093660693</v>
@@ -6156,7 +6108,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.750704764410704</v>
+        <v>1.714084603198236</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.154911707522835</v>
@@ -6245,7 +6197,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.745180495883423</v>
+        <v>1.712476171348322</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.27709437853761</v>
@@ -6334,7 +6286,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.749378350005981</v>
+        <v>1.726115099845977</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.027337240598131</v>
@@ -6423,7 +6375,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.752927340097163</v>
+        <v>1.728871144027267</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.169979117802281</v>
@@ -6512,7 +6464,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.764327886640797</v>
+        <v>1.739750306685871</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.836602597893501</v>
@@ -6601,7 +6553,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.775387152018927</v>
+        <v>1.753341965899041</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.956573906178433</v>
@@ -6690,7 +6642,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.773899951481511</v>
+        <v>1.747396036463504</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.613846455150441</v>
@@ -6779,7 +6731,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.762306379694811</v>
+        <v>1.734067734373453</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.392044256997425</v>
@@ -6868,7 +6820,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.759748260644422</v>
+        <v>1.735037750504538</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.071693947305903</v>
@@ -6957,7 +6909,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.762004714330618</v>
+        <v>1.734176688008108</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.921934250851705</v>
@@ -7046,7 +6998,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.767739168547774</v>
+        <v>1.738920437798034</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.105186953224684</v>
@@ -7135,7 +7087,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.771275368598209</v>
+        <v>1.747544718731325</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.116291178258271</v>
@@ -7224,7 +7176,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.770783758222388</v>
+        <v>1.750572114116797</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.408309736943669</v>
@@ -7313,7 +7265,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.761223699760387</v>
+        <v>1.732071894232889</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.899997939532951</v>
@@ -7402,7 +7354,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.755821837543873</v>
+        <v>1.722993698724059</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.642310168210741</v>
@@ -7491,7 +7443,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.763131729171768</v>
+        <v>1.72214708643228</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.903368182813467</v>
@@ -7580,7 +7532,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.770704990060276</v>
+        <v>1.72810254570531</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.084673422280648</v>
@@ -7669,7 +7621,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.769810510945805</v>
+        <v>1.720029333737125</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.968124030269985</v>
@@ -7758,7 +7710,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.775021856135376</v>
+        <v>1.719618971573201</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.929205333724997</v>
@@ -7847,7 +7799,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.769717709305761</v>
+        <v>1.713866160361701</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.736874382603052</v>
@@ -7936,7 +7888,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.768539566383265</v>
+        <v>1.70738935429426</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.289267575112968</v>
@@ -8025,7 +7977,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.768493361683739</v>
+        <v>1.706740407981038</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.076431696589861</v>
@@ -8114,7 +8066,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.776443876597732</v>
+        <v>1.710800153068351</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.081916223123208</v>
@@ -8203,7 +8155,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.779449610708311</v>
+        <v>1.711200128575893</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.736551041939733</v>
@@ -8292,7 +8244,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.782805310397314</v>
+        <v>1.71152250581089</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.011092866750117</v>
@@ -8381,7 +8333,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.772754255821791</v>
+        <v>1.700552656852021</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.191673563714382</v>
@@ -8470,7 +8422,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.775608795444742</v>
+        <v>1.693243995441077</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.48005474949626</v>
@@ -8559,7 +8511,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.775921167166951</v>
+        <v>1.693941376238851</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.191138368492272</v>
@@ -8648,7 +8600,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.775935964852962</v>
+        <v>1.701987814209718</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.666890996744697</v>
@@ -8737,7 +8689,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.781269035669706</v>
+        <v>1.708418988439584</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.982528708322483</v>
@@ -8826,7 +8778,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.779244688229205</v>
+        <v>1.700353089885157</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.109054215728614</v>
@@ -8915,7 +8867,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.778214349873336</v>
+        <v>1.699909410669799</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.828380351627189</v>
@@ -9004,7 +8956,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.779513620272832</v>
+        <v>1.700523559557384</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.174414626008392</v>
@@ -9290,7 +9242,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.305259039822404</v>
+        <v>1.286249847848151</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.076577540767992</v>
@@ -9379,7 +9331,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.301705454962073</v>
+        <v>1.286894920789173</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.060775117365337</v>
@@ -9468,7 +9420,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.306302218326482</v>
+        <v>1.292105146610577</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.040714474936504</v>
@@ -9557,7 +9509,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.348827745716339</v>
+        <v>1.345425931504129</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.031370264137239</v>
@@ -9646,7 +9598,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.36420545453132</v>
+        <v>1.360471470704781</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.979763578955389</v>
@@ -9735,7 +9687,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.411104156271951</v>
+        <v>1.397386406820575</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.974048218417449</v>
@@ -9824,7 +9776,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.429780111286202</v>
+        <v>1.410238340094918</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.930032681126735</v>
@@ -9913,7 +9865,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.495245406802908</v>
+        <v>1.463992299426091</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.749679463798043</v>
@@ -10002,7 +9954,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.544695531813578</v>
+        <v>1.518437789780156</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.279102473263312</v>
@@ -10091,7 +10043,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.573000082960429</v>
+        <v>1.53930522488072</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.205750781939909</v>
@@ -10180,7 +10132,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.590921330323739</v>
+        <v>1.561067812863122</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.917891469882218</v>
@@ -10269,7 +10221,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.575825262179163</v>
+        <v>1.547505962803203</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.065655814637195</v>
@@ -10358,7 +10310,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.585940542132153</v>
+        <v>1.558882769804949</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.759254134577774</v>
@@ -10447,7 +10399,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.603463286024594</v>
+        <v>1.577559837314644</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.041591085657965</v>
@@ -10536,7 +10488,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.608157157291408</v>
+        <v>1.579271469543875</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.872616673440817</v>
@@ -10625,7 +10577,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.610352947637459</v>
+        <v>1.579215369842758</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.965579567026949</v>
@@ -10714,7 +10666,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.606598529627893</v>
+        <v>1.574746550909558</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.855742208665175</v>
@@ -10803,7 +10755,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.607025822461598</v>
+        <v>1.575195718898606</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.93027879433685</v>
@@ -10892,7 +10844,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.583173104046049</v>
+        <v>1.552555644512688</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.935499190515289</v>
@@ -10981,7 +10933,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.566685607270584</v>
+        <v>1.531317179769835</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.789814657698883</v>
@@ -11070,7 +11022,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.552058826592087</v>
+        <v>1.527162438457417</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.664066718078645</v>
@@ -11159,7 +11111,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.575915536916017</v>
+        <v>1.543594607304739</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.901624364649589</v>
@@ -11248,7 +11200,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.581401669956937</v>
+        <v>1.552039588424907</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.052821770364435</v>
@@ -11337,7 +11289,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.590084245875802</v>
+        <v>1.562510487139026</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.959220979738265</v>
@@ -11426,7 +11378,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.61628235273267</v>
+        <v>1.58430680611523</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.140136426719564</v>
@@ -11515,7 +11467,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.61115575258224</v>
+        <v>1.575179342970098</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.269441429272948</v>
@@ -11604,7 +11556,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.633112103490525</v>
+        <v>1.598387862915028</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.269299113802432</v>
@@ -11693,7 +11645,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.62807800917709</v>
+        <v>1.590352979389614</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.943112423573762</v>
@@ -11782,7 +11734,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.624136984563898</v>
+        <v>1.586903561753719</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.37298708065104</v>
@@ -11871,7 +11823,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.632510987854986</v>
+        <v>1.592979722603307</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.048981641158346</v>
@@ -11960,7 +11912,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.634269596390876</v>
+        <v>1.592380208718753</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.15483320043845</v>
@@ -12049,7 +12001,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.631324963203437</v>
+        <v>1.589159689716739</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.944865341769978</v>
@@ -12138,7 +12090,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.629846336159358</v>
+        <v>1.584828158666047</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.718663560686225</v>
@@ -12227,7 +12179,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.616693816716445</v>
+        <v>1.576414499053454</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.147829752354995</v>
@@ -12316,7 +12268,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.620896928592431</v>
+        <v>1.586191341735907</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.969254015934724</v>
@@ -12405,7 +12357,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.640240515846309</v>
+        <v>1.602577456076412</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.85378731603325</v>
@@ -12494,7 +12446,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.636292026878162</v>
+        <v>1.604760327659942</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.993915027328685</v>
@@ -12583,7 +12535,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.609091621384159</v>
+        <v>1.580560607563059</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.295991058340302</v>
@@ -12672,7 +12624,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.594918210447096</v>
+        <v>1.575032999495247</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.336750848081003</v>
@@ -12761,7 +12713,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.573174387394053</v>
+        <v>1.554049207893267</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.341790192028399</v>
@@ -12850,7 +12802,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.567276021689554</v>
+        <v>1.549450811012084</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.35128770007816</v>
@@ -12939,7 +12891,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.561808018609227</v>
+        <v>1.541419028668386</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.261130428297335</v>
@@ -13028,7 +12980,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.533692578797009</v>
+        <v>1.516263076655778</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.387254994102559</v>
@@ -13117,7 +13069,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.528930800987371</v>
+        <v>1.512601948419681</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.467026217088023</v>
@@ -13206,7 +13158,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.526979460979522</v>
+        <v>1.505630834403884</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.459426486119765</v>
@@ -13295,7 +13247,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.528959137258899</v>
+        <v>1.507299917067977</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.487392468341378</v>
@@ -13384,7 +13336,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.533871792777031</v>
+        <v>1.50591884062208</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.422824832897839</v>
@@ -13473,7 +13425,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.529659671123377</v>
+        <v>1.50307102405144</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.320705408114176</v>
@@ -13562,7 +13514,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.539329784305301</v>
+        <v>1.503913014519586</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.413081837104586</v>
@@ -13651,7 +13603,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.551814526634449</v>
+        <v>1.51385093527225</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.46356992269875</v>
@@ -13740,7 +13692,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.54675221876784</v>
+        <v>1.508329502359132</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.304450612899319</v>
@@ -14026,7 +13978,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.444970263667944</v>
+        <v>1.46097444628968</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.160070306916935</v>
@@ -14115,7 +14067,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.414085733731219</v>
+        <v>1.423054160607691</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.017449814226375</v>
@@ -14204,7 +14156,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.391591053646205</v>
+        <v>1.394539224508901</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.014563457851017</v>
@@ -14293,7 +14245,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.441449550193581</v>
+        <v>1.448719169916838</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.953689028260621</v>
@@ -14382,7 +14334,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.451594481096722</v>
+        <v>1.465714754579796</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.034805816334293</v>
@@ -14471,7 +14423,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.445844472245179</v>
+        <v>1.456049692483325</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.005178924419733</v>
@@ -14560,7 +14512,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.448943253877522</v>
+        <v>1.461356131685216</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.039918039118889</v>
@@ -14649,7 +14601,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.486119528395748</v>
+        <v>1.485643004780049</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.980541068330215</v>
@@ -14738,7 +14690,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.476569376451417</v>
+        <v>1.474317388836627</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.152411097974107</v>
@@ -14827,7 +14779,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.483909227217712</v>
+        <v>1.4837492122813</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.873437700277125</v>
@@ -14916,7 +14868,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.482490735198136</v>
+        <v>1.484442308098136</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.735052904005136</v>
@@ -15005,7 +14957,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.470620635128994</v>
+        <v>1.474064467421281</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.704059944323162</v>
@@ -15094,7 +15046,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.476330735118332</v>
+        <v>1.481380427462163</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.871243829121881</v>
@@ -15183,7 +15135,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.494140909363657</v>
+        <v>1.493237591097576</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.88346388544538</v>
@@ -15272,7 +15224,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.491254621125145</v>
+        <v>1.491451675326407</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.748385771404056</v>
@@ -15361,7 +15313,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.494033890794028</v>
+        <v>1.496875333080976</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.896026067612862</v>
@@ -15450,7 +15402,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.481291753799777</v>
+        <v>1.484212350707059</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.749831639918659</v>
@@ -15539,7 +15491,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.487787250653662</v>
+        <v>1.49155936763813</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.718374669909309</v>
@@ -15628,7 +15580,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.469137057584954</v>
+        <v>1.467898793493241</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.723961396303994</v>
@@ -15717,7 +15669,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.470263260413202</v>
+        <v>1.461026430916651</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.952997450587693</v>
@@ -15806,7 +15758,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.468895606640023</v>
+        <v>1.457820727383475</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.67817558240106</v>
@@ -15895,7 +15847,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.473793190635792</v>
+        <v>1.459085522068455</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.649788129305184</v>
@@ -15984,7 +15936,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.484875962918171</v>
+        <v>1.469356527356989</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.507268218638278</v>
@@ -16073,7 +16025,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.506363993290357</v>
+        <v>1.490097282541734</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.928147006601474</v>
@@ -16162,7 +16114,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.512191261619037</v>
+        <v>1.496506676702819</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.886313303176678</v>
@@ -16251,7 +16203,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.521079083309649</v>
+        <v>1.497289622779613</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.9565645906241</v>
@@ -16340,7 +16292,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.527615684882323</v>
+        <v>1.503517150392474</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.06425193445994</v>
@@ -16429,7 +16381,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.524629332252596</v>
+        <v>1.498461039967157</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.828535833798011</v>
@@ -16518,7 +16470,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.533290303714605</v>
+        <v>1.510045579004542</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.031092473235384</v>
@@ -16607,7 +16559,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.542439368870503</v>
+        <v>1.512440935183683</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.027657162932282</v>
@@ -16696,7 +16648,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.551128588341778</v>
+        <v>1.515608630267273</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.878758827090067</v>
@@ -16785,7 +16737,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.55607112552635</v>
+        <v>1.511953611678744</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.110501405264052</v>
@@ -16874,7 +16826,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.555354697285908</v>
+        <v>1.504428650695932</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.829479971026166</v>
@@ -16963,7 +16915,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.559222611384353</v>
+        <v>1.507916819609985</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.035762556618398</v>
@@ -17052,7 +17004,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.561653618440297</v>
+        <v>1.512959940943159</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.703675962811625</v>
@@ -17141,7 +17093,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.573270765039453</v>
+        <v>1.522252711872644</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.584428903778253</v>
@@ -17230,7 +17182,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.567814060411813</v>
+        <v>1.519766147253604</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.056849061594163</v>
@@ -17319,7 +17271,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.555050671467672</v>
+        <v>1.506780743303898</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.659456251895326</v>
@@ -17408,7 +17360,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.550982622410636</v>
+        <v>1.498605463807042</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.057345425095916</v>
@@ -17497,7 +17449,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.552837364384088</v>
+        <v>1.497188484646107</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.993424798160057</v>
@@ -17586,7 +17538,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.554771850927693</v>
+        <v>1.500398457833987</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.937559054795934</v>
@@ -17675,7 +17627,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.550244652118502</v>
+        <v>1.492055138039978</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.804426832601263</v>
@@ -17764,7 +17716,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.557568732551141</v>
+        <v>1.503423283618163</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.815320506387589</v>
@@ -17853,7 +17805,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.548729644923152</v>
+        <v>1.484806284570389</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.663698237753362</v>
@@ -17942,7 +17894,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.545213456784808</v>
+        <v>1.482277702959028</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.974877640513834</v>
@@ -18031,7 +17983,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.53967019413712</v>
+        <v>1.472449938848096</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.67044311304879</v>
@@ -18120,7 +18072,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.519529738830569</v>
+        <v>1.467534207703781</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.668597321186593</v>
@@ -18209,7 +18161,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.52270872370124</v>
+        <v>1.467496161143837</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.925988633433697</v>
@@ -18298,7 +18250,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.527507472298578</v>
+        <v>1.463403000678167</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.651335843415919</v>
@@ -18387,7 +18339,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.518195175640713</v>
+        <v>1.454550669400086</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.526235713077353</v>
@@ -18476,7 +18428,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.516676383192308</v>
+        <v>1.452509157813616</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.67187101217369</v>
@@ -18762,7 +18714,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.364147642101526</v>
+        <v>1.363123094240498</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.204664354497781</v>
@@ -18851,7 +18803,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.362111930583661</v>
+        <v>1.359844701394179</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.14176670680719</v>
@@ -18940,7 +18892,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.358748593883219</v>
+        <v>1.351552260531025</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.137400293632657</v>
@@ -19029,7 +18981,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.379343852245561</v>
+        <v>1.377415051743732</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.02689545627326</v>
@@ -19118,7 +19070,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.387049915772817</v>
+        <v>1.392747033891987</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.005027731583006</v>
@@ -19207,7 +19159,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.40061520306575</v>
+        <v>1.405253454910239</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.997488879814357</v>
@@ -19296,7 +19248,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.39006918687921</v>
+        <v>1.397954336167234</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.883662600901787</v>
@@ -19385,7 +19337,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.420222248181515</v>
+        <v>1.425668310178295</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.870463699265632</v>
@@ -19474,7 +19426,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.431169927847354</v>
+        <v>1.421847298378694</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.793248375022557</v>
@@ -19563,7 +19515,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.547093118098525</v>
+        <v>1.533995222485131</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.213139422037873</v>
@@ -19652,7 +19604,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.593764242598088</v>
+        <v>1.578161328990891</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.506784041280637</v>
@@ -19741,7 +19693,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.593447887288207</v>
+        <v>1.579795917091235</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.577589419461266</v>
@@ -19830,7 +19782,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.602889539342114</v>
+        <v>1.582986326880602</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.061396984039556</v>
@@ -19919,7 +19871,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.626885094134238</v>
+        <v>1.602916728573492</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.38891825357575</v>
@@ -20008,7 +19960,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.632771163620541</v>
+        <v>1.608409234752789</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.166287868335315</v>
@@ -20097,7 +20049,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.649163037060476</v>
+        <v>1.620543226672742</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.630573615051715</v>
@@ -20186,7 +20138,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.641723415963295</v>
+        <v>1.618458309857918</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.493875289810493</v>
@@ -20275,7 +20227,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.653209514387468</v>
+        <v>1.628815511184434</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.42951126312739</v>
@@ -20364,7 +20316,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.664836337908077</v>
+        <v>1.638796961260327</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.055834035003335</v>
@@ -20453,7 +20405,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.675477125602856</v>
+        <v>1.62188323876976</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.415357317685709</v>
@@ -20542,7 +20494,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.688374660573883</v>
+        <v>1.636942730964679</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.054543331466693</v>
@@ -20631,7 +20583,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.70895842886173</v>
+        <v>1.654973375475519</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.100982720769</v>
@@ -20720,7 +20672,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.708933080116164</v>
+        <v>1.655589971225579</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.263497628897441</v>
@@ -20809,7 +20761,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.719795662530755</v>
+        <v>1.669252232634593</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.362605474283829</v>
@@ -20898,7 +20850,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.733503380022524</v>
+        <v>1.678974380715772</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.140701524670151</v>
@@ -20987,7 +20939,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.727565826217538</v>
+        <v>1.669507287732328</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.354872390301634</v>
@@ -21076,7 +21028,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.722624035912306</v>
+        <v>1.669147654333659</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.418716356938955</v>
@@ -21165,7 +21117,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.725475628703663</v>
+        <v>1.671573633829618</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.397616537917282</v>
@@ -21254,7 +21206,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.717746429789136</v>
+        <v>1.663289003750584</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.43359728537767</v>
@@ -21343,7 +21295,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.716214759510954</v>
+        <v>1.660257151204949</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.408709729163299</v>
@@ -21432,7 +21384,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.712898271482638</v>
+        <v>1.654610763295907</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.211227754267353</v>
@@ -21521,7 +21473,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.721186433404264</v>
+        <v>1.660827428319908</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.339675072605155</v>
@@ -21610,7 +21562,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.717591262750656</v>
+        <v>1.654150737260818</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.474564423301417</v>
@@ -21699,7 +21651,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.705776831817089</v>
+        <v>1.641958524887856</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.091307869239458</v>
@@ -21788,7 +21740,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.6953442266561</v>
+        <v>1.660503343191243</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.525124236736912</v>
@@ -21877,7 +21829,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.69026042733551</v>
+        <v>1.660358391935996</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.292644593978506</v>
@@ -21966,7 +21918,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.68115625794927</v>
+        <v>1.645634121514647</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.802738096750947</v>
@@ -22055,7 +22007,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.67772589598008</v>
+        <v>1.634075509771588</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.00113844428101</v>
@@ -22144,7 +22096,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.678408920697261</v>
+        <v>1.629326215659139</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.582896033693484</v>
@@ -22233,7 +22185,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.677104888045709</v>
+        <v>1.626020380117252</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.167507524945146</v>
@@ -22322,7 +22274,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.686918008500621</v>
+        <v>1.631551701347989</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.938119591779083</v>
@@ -22411,7 +22363,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.68291676852985</v>
+        <v>1.62724471936925</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.715136679483587</v>
@@ -22500,7 +22452,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.677405681124356</v>
+        <v>1.620642365991643</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.329869291715098</v>
@@ -22589,7 +22541,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.678752776072824</v>
+        <v>1.610937426600043</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.370219777673705</v>
@@ -22678,7 +22630,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.679067202514564</v>
+        <v>1.60797282666891</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.785109674930316</v>
@@ -22767,7 +22719,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.681075628631932</v>
+        <v>1.608744093542133</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.465706370605738</v>
@@ -22856,7 +22808,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.677857798606786</v>
+        <v>1.602014010681079</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.538708620275288</v>
@@ -22945,7 +22897,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.677506826621666</v>
+        <v>1.598387247081189</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.220028203307935</v>
@@ -23034,7 +22986,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.674490456619418</v>
+        <v>1.589808727525827</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.192427881364586</v>
@@ -23123,7 +23075,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.678347272240473</v>
+        <v>1.589064624319711</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.414130623055541</v>
@@ -23212,7 +23164,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.684626425946284</v>
+        <v>1.583337635920677</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.180186661517512</v>
@@ -23498,7 +23450,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.450071049415624</v>
+        <v>1.447239808927885</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.792576289827093</v>
@@ -23587,7 +23539,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.440462790428383</v>
+        <v>1.435505671178517</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.766117864197804</v>
@@ -23676,7 +23628,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.444355533539865</v>
+        <v>1.437305665984446</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.790080271634606</v>
@@ -23765,7 +23717,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.445331845769505</v>
+        <v>1.450983156095104</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.092940466366612</v>
@@ -23854,7 +23806,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.469837490784281</v>
+        <v>1.473361799713796</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.328266181827176</v>
@@ -23943,7 +23895,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.476032800165676</v>
+        <v>1.484607779397406</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.127423721695609</v>
@@ -24032,7 +23984,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.415030038463426</v>
+        <v>1.423475928181676</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.029789331521873</v>
@@ -24121,7 +24073,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.487852507565893</v>
+        <v>1.482742457311536</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.341558011871927</v>
@@ -24210,7 +24162,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.466794905294575</v>
+        <v>1.457600391847255</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.33009631780494</v>
@@ -24299,7 +24251,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.477993789339253</v>
+        <v>1.462255535760606</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.074332061640114</v>
@@ -24388,7 +24340,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.543307443751288</v>
+        <v>1.521250912611908</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.920364684006524</v>
@@ -24477,7 +24429,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.540518905650599</v>
+        <v>1.521575901050283</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.985452554917594</v>
@@ -24566,7 +24518,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.548762375008225</v>
+        <v>1.526647771474621</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.601047457965008</v>
@@ -24655,7 +24607,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.56618050280752</v>
+        <v>1.545788307462414</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.126808938146874</v>
@@ -24744,7 +24696,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.571340336107708</v>
+        <v>1.551777045789521</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.124778669949565</v>
@@ -24833,7 +24785,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.567751156064632</v>
+        <v>1.547030857905916</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.876033792569512</v>
@@ -24922,7 +24874,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.566149902139815</v>
+        <v>1.548793220098851</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.949481580340765</v>
@@ -25011,7 +24963,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.551540435163649</v>
+        <v>1.537899215231766</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.94836971730632</v>
@@ -25100,7 +25052,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.503489458913125</v>
+        <v>1.494748182578937</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.163547385896953</v>
@@ -25189,7 +25141,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.488664481615651</v>
+        <v>1.474922850384064</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.23326185628848</v>
@@ -25278,7 +25230,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.49989972808718</v>
+        <v>1.488475371329771</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.291408776769907</v>
@@ -25367,7 +25319,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.507434428922899</v>
+        <v>1.49713948841041</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.229177728689151</v>
@@ -25456,7 +25408,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.469407195184703</v>
+        <v>1.468610087406815</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.270980672787567</v>
@@ -25545,7 +25497,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.473360877498383</v>
+        <v>1.470359647905844</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.316053626132252</v>
@@ -25634,7 +25586,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.444449773797404</v>
+        <v>1.438578162705443</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.311394091302881</v>
@@ -25723,7 +25675,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.402870590074682</v>
+        <v>1.402481208398297</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.234476253580481</v>
@@ -25812,7 +25764,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.389539825322024</v>
+        <v>1.38872390116552</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.172373723080021</v>
@@ -25901,7 +25853,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.383760509431815</v>
+        <v>1.379925674360493</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.153442785558434</v>
@@ -25990,7 +25942,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.376228941957718</v>
+        <v>1.364401517579847</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.201109454990596</v>
@@ -26079,7 +26031,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.354156392146329</v>
+        <v>1.346119455871587</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.103499725952473</v>
@@ -26168,7 +26120,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.359462099596232</v>
+        <v>1.353299233073205</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.196801088942207</v>
@@ -26257,7 +26209,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.339278004507389</v>
+        <v>1.331684194442028</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.244666160114774</v>
@@ -26346,7 +26298,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.338661699651318</v>
+        <v>1.326916659916271</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.303720472826646</v>
@@ -26435,7 +26387,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.34056547389695</v>
+        <v>1.322731473169737</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.267852468348346</v>
@@ -26524,7 +26476,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.338578299463625</v>
+        <v>1.32729648860617</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.192054026502205</v>
@@ -26613,7 +26565,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.314091328331123</v>
+        <v>1.303660482705906</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.269659172469189</v>
@@ -26702,7 +26654,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.313463883593861</v>
+        <v>1.303829588786008</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.188620383855899</v>
@@ -26791,7 +26743,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.312951602217057</v>
+        <v>1.302737998317221</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.259659813527977</v>
@@ -26880,7 +26832,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.309268776838655</v>
+        <v>1.300953679083439</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.155639291398123</v>
@@ -26969,7 +26921,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.328325537527487</v>
+        <v>1.322069147393891</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.09818782058347</v>
@@ -27058,7 +27010,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.364035848167078</v>
+        <v>1.356390175050289</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.109514199764105</v>
@@ -27147,7 +27099,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.366851239352932</v>
+        <v>1.361600732889455</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.259825715302422</v>
@@ -27236,7 +27188,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.368679192998179</v>
+        <v>1.363616589403984</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.273491728864936</v>
@@ -27325,7 +27277,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.384682233592272</v>
+        <v>1.388590002291563</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.367262029633148</v>
@@ -27414,7 +27366,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.408549780969737</v>
+        <v>1.41044618876404</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.418521263502054</v>
@@ -27503,7 +27455,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.407136545177109</v>
+        <v>1.405112758204756</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.399571845127755</v>
@@ -27592,7 +27544,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.431718806550721</v>
+        <v>1.431097674126098</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.385232759439136</v>
@@ -27681,7 +27633,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.429981989560723</v>
+        <v>1.432067198919471</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.356159645930733</v>
@@ -27770,7 +27722,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.459956899294956</v>
+        <v>1.461807604352623</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.276382940279682</v>
@@ -27859,7 +27811,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.481144633370847</v>
+        <v>1.477280824877599</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.217637167634609</v>
@@ -27948,7 +27900,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.511339813751415</v>
+        <v>1.508535142012042</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.197163369479932</v>
@@ -28234,7 +28186,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.272254917428509</v>
+        <v>1.242459542513674</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.652831263360786</v>
@@ -28323,7 +28275,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.265987757614519</v>
+        <v>1.234345322077313</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.633225923912442</v>
@@ -28412,7 +28364,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.270924194397155</v>
+        <v>1.234068905368609</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.690615865289762</v>
@@ -28501,7 +28453,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.304340166667198</v>
+        <v>1.317111696267131</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.497254280340029</v>
@@ -28590,7 +28542,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.383154756217238</v>
+        <v>1.405356848167033</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.95624301994203</v>
@@ -28679,7 +28631,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.408413593160386</v>
+        <v>1.423403635168</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.839322363295879</v>
@@ -28768,7 +28720,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.439666841268663</v>
+        <v>1.447644108990564</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.699780958910941</v>
@@ -28857,7 +28809,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.522321099708519</v>
+        <v>1.509065237949456</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.757076879218549</v>
@@ -28946,7 +28898,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.568981431735303</v>
+        <v>1.526768308225864</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.843140333057232</v>
@@ -29035,7 +28987,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.583964019566984</v>
+        <v>1.539479752315029</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.281493639117606</v>
@@ -29124,7 +29076,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.573681785797843</v>
+        <v>1.530128760185928</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.326692913748931</v>
@@ -29213,7 +29165,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.57679903961498</v>
+        <v>1.530205960644063</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.299546370390856</v>
@@ -29302,7 +29254,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.625091572989299</v>
+        <v>1.566453203514329</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.373508690907162</v>
@@ -29391,7 +29343,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.645590337887694</v>
+        <v>1.588625113528713</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.936897815474204</v>
@@ -29480,7 +29432,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.641060360021685</v>
+        <v>1.585465129486173</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.992100235423581</v>
@@ -29569,7 +29521,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.638614170631188</v>
+        <v>1.586260653606153</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.251955735662198</v>
@@ -29658,7 +29610,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.635613010762207</v>
+        <v>1.584236696853244</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.176198235212385</v>
@@ -29747,7 +29699,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.648658389130395</v>
+        <v>1.592036746482146</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.016535481752796</v>
@@ -29836,7 +29788,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.653989084170893</v>
+        <v>1.600698406286919</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.143278043915545</v>
@@ -29925,7 +29877,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.66056093141739</v>
+        <v>1.589062467091307</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.60379858605469</v>
@@ -30014,7 +29966,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.670393144709695</v>
+        <v>1.601663742570025</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.077293034710963</v>
@@ -30103,7 +30055,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.667133408961653</v>
+        <v>1.605183280455287</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.792485674699621</v>
@@ -30192,7 +30144,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.65821263556779</v>
+        <v>1.599812740651426</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.877929895171668</v>
@@ -30281,7 +30233,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.663722251278396</v>
+        <v>1.606014393204702</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.77520712722675</v>
@@ -30370,7 +30322,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.664910280813112</v>
+        <v>1.60902389480491</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.947351348571575</v>
@@ -30459,7 +30411,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.667885218589326</v>
+        <v>1.60686005748033</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.972237344888987</v>
@@ -30548,7 +30500,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.677460765074338</v>
+        <v>1.617364768611714</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.935457167091892</v>
@@ -30637,7 +30589,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.662661686243568</v>
+        <v>1.60808410444303</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.059492368623436</v>
@@ -30726,7 +30678,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.669095175903142</v>
+        <v>1.613391709759504</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.881225326269544</v>
@@ -30815,7 +30767,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.671844083020758</v>
+        <v>1.614885552197474</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.087973759994761</v>
@@ -30904,7 +30856,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.667452493982866</v>
+        <v>1.609477796670108</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.927307089164242</v>
@@ -30993,7 +30945,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.657006802121396</v>
+        <v>1.592883885060608</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.106782745410646</v>
@@ -31082,7 +31034,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.652093649077161</v>
+        <v>1.5846402450776</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.038091377291266</v>
@@ -31171,7 +31123,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.639613709934949</v>
+        <v>1.570117120876718</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.07487045297681</v>
@@ -31260,7 +31212,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.631192832697458</v>
+        <v>1.579284328030773</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.218748452062191</v>
@@ -31349,7 +31301,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.624129724188756</v>
+        <v>1.57547055457752</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.09484432033792</v>
@@ -31438,7 +31390,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.630915374073874</v>
+        <v>1.573920995259827</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.272807086736429</v>
@@ -31527,7 +31479,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.630340213886323</v>
+        <v>1.569643695792495</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.262791727964566</v>
@@ -31616,7 +31568,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.621838853747186</v>
+        <v>1.555042800000173</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.868065221731291</v>
@@ -31705,7 +31657,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.617128905772945</v>
+        <v>1.550382795093959</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.974136386499926</v>
@@ -31794,7 +31746,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.616663400158598</v>
+        <v>1.556269487870592</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.272386118701227</v>
@@ -31883,7 +31835,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.620046187679605</v>
+        <v>1.55059818718568</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.320097104373121</v>
@@ -31972,7 +31924,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.616279398997022</v>
+        <v>1.54840759499504</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.343053096555122</v>
@@ -32061,7 +32013,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.610093916033457</v>
+        <v>1.534719194739185</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.363424509122974</v>
@@ -32150,7 +32102,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.601247170500124</v>
+        <v>1.519812791143334</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.987384199233433</v>
@@ -32239,7 +32191,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.601220567991489</v>
+        <v>1.51882329229411</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.275350347674781</v>
@@ -32328,7 +32280,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.602430067516197</v>
+        <v>1.520677801602813</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.139566101594979</v>
@@ -32417,7 +32369,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.606676788782212</v>
+        <v>1.526806757032376</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.430039793987658</v>
@@ -32506,7 +32458,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.610993778870493</v>
+        <v>1.529995940925692</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.387954072610278</v>
@@ -32595,7 +32547,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.618426432244826</v>
+        <v>1.533714587796844</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.133460656158716</v>
@@ -32684,7 +32636,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.624925115946184</v>
+        <v>1.534345573647945</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.388354966630368</v>
